--- a/mergedRunSequencedSamples.xlsx
+++ b/mergedRunSequencedSamples.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Documents/GitHub/mxMcavSnp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEF5E65-64C3-DE4A-B9AD-0F8CD49DAE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFC6EBB-2365-9E48-AA5B-6B17A2085BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1" xr2:uid="{2A494274-1A54-0F4D-B46B-64478911274D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="4" xr2:uid="{2A494274-1A54-0F4D-B46B-64478911274D}"/>
   </bookViews>
   <sheets>
     <sheet name="allSamples" sheetId="1" r:id="rId1"/>
     <sheet name="sequencedSamples" sheetId="2" r:id="rId2"/>
     <sheet name="sequencedSamplesbyPop" sheetId="3" r:id="rId3"/>
     <sheet name="clonePairs" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="samplesNoClones" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -544,7 +544,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2556,7 +2556,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C95603FF-48C4-3844-825C-917C14401D93}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C95603FF-48C4-3844-825C-917C14401D93}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -3054,10 +3054,10 @@
   <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -3072,7 +3072,7 @@
     <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="51">
+    <row r="1" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>118</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>119</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>120</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -8071,11 +8071,11 @@
   </sheetPr>
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K99"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -8089,7 +8089,7 @@
     <col min="12" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="51">
+    <row r="1" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0.50945993999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>0.22650465</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>0.29840136</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>15</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>2.4002740000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>16</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>0.24825585</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>18</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>0.49531908000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>19</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>0.52628328000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>0.76927369999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>21</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>0.59792276</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>0.12990019999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>23</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>0.87355539999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>0.21425841000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>26</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>3.3140089999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>0.12212885</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>0.10508455999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>30</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>0.72728601000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>31</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>0.38910883000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>32</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>0.72841524000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>33</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>0.53149416000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>0.87549845000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>0.68973180999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>36</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>0.12297578000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>37</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>2.8048360000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>39</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>0.43785769000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>0.49471308000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>44</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>0.39522711999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>45</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>0.56724355000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>46</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>0.16122765</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>47</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>0.32580766</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>48</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>0.36029765000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>49</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>0.37719055000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>51</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>0.53469149999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>52</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>0.74640057000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>53</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>0.75953943999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>54</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>0.64781372999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>55</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>0.69920088000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>56</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>0.34784540000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>57</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>0.53319907</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>58</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>0.40518689000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>60</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>0.82578499000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>61</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>0.81332097999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>62</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>0.71062320000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>63</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>0.31416504000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>64</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>0.88370671999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>65</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>0.67084357999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
         <v>66</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>0.89128425</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>67</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>0.89073451000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
         <v>68</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>0.32022240000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>69</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>0.81314898999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
         <v>70</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>0.83398665999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="17" customFormat="1">
+    <row r="52" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>71</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>0.84766171999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
         <v>72</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>0.83545172999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
         <v>73</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>0.86534330999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>74</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>0.84862128999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
         <v>75</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>0.84253794999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
         <v>76</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>0.23131206000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
         <v>77</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>0.34644872999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
         <v>78</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>0.81931739999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="22" t="s">
         <v>80</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>0.55099648000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
         <v>81</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>0.82728109999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
         <v>82</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>0.87917741000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
         <v>83</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>0.42618085999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
         <v>84</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>0.75567538999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
         <v>85</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>0.24410768999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
         <v>86</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>0.17755689</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>87</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>0.80842855000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
         <v>88</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>5.1801359999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
         <v>89</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>0.67231549000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="22" t="s">
         <v>90</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>0.67947148000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="22" t="s">
         <v>91</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>0.48989021999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="22" t="s">
         <v>92</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>0.59679090999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="22" t="s">
         <v>93</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>0.54027692999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="22" t="s">
         <v>94</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>0.30967825999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="22" t="s">
         <v>95</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>0.39578158000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="22" t="s">
         <v>96</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>0.12892089000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="22" t="s">
         <v>97</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>0.27193024999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
         <v>99</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>2.8330230000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="22" t="s">
         <v>101</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>0.56614028999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="22" t="s">
         <v>102</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>0.33989318000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="22" t="s">
         <v>103</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>7.8613719999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="22" t="s">
         <v>104</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>0.15530110999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
         <v>105</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>0.21827369999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
         <v>107</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>6.8416619999999997E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="14" customFormat="1">
+    <row r="85" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
         <v>108</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>5.2811719999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="22" t="s">
         <v>109</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>0.80053474000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="22" t="s">
         <v>112</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>0.40908204999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="22" t="s">
         <v>113</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>1.8402390000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="22" t="s">
         <v>115</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>6.7025570000000007E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="22" t="s">
         <v>118</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>0.47513799000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="22" t="s">
         <v>119</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>4.2402889999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="22" t="s">
         <v>122</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>4.8781070000000003E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="22" t="s">
         <v>125</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>0.15351134</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="22" t="s">
         <v>127</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>0.75301430999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="22" t="s">
         <v>128</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>0.71462840999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="22" t="s">
         <v>131</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>5.5070269999999998E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="22" t="s">
         <v>132</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>0.41362093999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="22" t="s">
         <v>134</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>0.18531948000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="22" t="s">
         <v>136</v>
       </c>
@@ -12371,13 +12371,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>146</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>10</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>15</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>25</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>35</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>79</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>10</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>15</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>35</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>121</v>
       </c>
@@ -12465,19 +12465,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>147</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>148</v>
       </c>
@@ -12498,13 +12498,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>150</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>12</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>152</v>
       </c>
@@ -12528,57 +12528,57 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>163</v>
       </c>
@@ -12592,11 +12592,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FDE97E-CC26-E849-B605-BAF71CF10D91}">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I98"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="M98" sqref="A1:M98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -12610,7 +12610,7 @@
     <col min="12" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51">
+    <row r="1" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -13558,7 +13558,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
         <v>71</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>89</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -15472,7 +15472,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>93</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>96</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>108</v>
       </c>
@@ -15979,7 +15979,7 @@
       </c>
       <c r="M85" s="14"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>112</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>118</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>119</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>122</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>125</v>
       </c>
@@ -16292,7 +16292,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>128</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>132</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>134</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>136</v>
       </c>
